--- a/Foundation/CharacterLibrary/CharacterLibrary.xlsx
+++ b/Foundation/CharacterLibrary/CharacterLibrary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\Project\Foundation\CharacterLibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3827FCBF-78B8-475E-9D0E-4996BF886B79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E58D507-BE73-4527-A6B8-71E4FEFF3807}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="1605" windowWidth="21600" windowHeight="11385" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="11" r:id="rId1"/>
@@ -24,10 +24,17 @@
     <sheet name="8" sheetId="9" r:id="rId9"/>
     <sheet name="9" sheetId="10" r:id="rId10"/>
     <sheet name="A" sheetId="1" r:id="rId11"/>
-    <sheet name="T" sheetId="12" r:id="rId12"/>
-    <sheet name="G" sheetId="13" r:id="rId13"/>
-    <sheet name="Dash" sheetId="14" r:id="rId14"/>
-    <sheet name="Blank" sheetId="15" r:id="rId15"/>
+    <sheet name="B" sheetId="16" r:id="rId12"/>
+    <sheet name="C" sheetId="17" r:id="rId13"/>
+    <sheet name="D" sheetId="18" r:id="rId14"/>
+    <sheet name="E" sheetId="19" r:id="rId15"/>
+    <sheet name="F" sheetId="20" r:id="rId16"/>
+    <sheet name="G" sheetId="13" r:id="rId17"/>
+    <sheet name="H" sheetId="21" r:id="rId18"/>
+    <sheet name="I" sheetId="22" r:id="rId19"/>
+    <sheet name="T" sheetId="12" r:id="rId20"/>
+    <sheet name="Dash" sheetId="14" r:id="rId21"/>
+    <sheet name="Blank" sheetId="15" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -664,10 +671,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F4D276-158B-4B9E-BFE7-DBA7E57C8A4C}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -752,10 +759,13 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="K9">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <v>1</v>
       </c>
       <c r="L9">
@@ -763,35 +773,29 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C10">
-        <v>1</v>
-      </c>
       <c r="D10">
         <v>1</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
       <c r="L10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
       <c r="L11">
         <v>1</v>
       </c>
@@ -802,6 +806,9 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>1</v>
+      </c>
       <c r="K13">
         <v>1</v>
       </c>
@@ -812,38 +819,33 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J15">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>1</v>
       </c>
     </row>
@@ -858,7 +860,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1282,16 +1284,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E8D76C-6E77-484E-BAF4-091AB3146CF5}">
-  <dimension ref="A1:K16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00296EEA-B133-4EA1-9C4F-E717CDA812E4}">
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1310,94 +1312,172 @@
       <c r="F1">
         <v>1</v>
       </c>
-      <c r="G1">
-        <v>1</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-      <c r="I1">
-        <v>1</v>
-      </c>
-      <c r="J1">
-        <v>1</v>
-      </c>
-      <c r="K1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
       <c r="F7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>1</v>
       </c>
     </row>
@@ -1408,11 +1488,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A5FD9F-BC82-4B13-B07D-84F5D53771EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BE73FE-6F73-43E7-9042-D58CCF0AD93C}">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1430,12 +1510,15 @@
       <c r="H1">
         <v>1</v>
       </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1</v>
       </c>
     </row>
@@ -1443,7 +1526,7 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1</v>
       </c>
     </row>
@@ -1451,7 +1534,7 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1</v>
       </c>
     </row>
@@ -1459,25 +1542,16 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1493,38 +1567,14 @@
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="L12">
+      <c r="B12">
         <v>1</v>
       </c>
     </row>
@@ -1537,10 +1587,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="J14">
+      <c r="C14">
         <v>1</v>
       </c>
       <c r="K14">
@@ -1548,10 +1595,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="I15">
+      <c r="D15">
         <v>1</v>
       </c>
       <c r="J15">
@@ -1559,9 +1603,6 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D16">
-        <v>1</v>
-      </c>
       <c r="E16">
         <v>1</v>
       </c>
@@ -1572,6 +1613,9 @@
         <v>1</v>
       </c>
       <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
         <v>1</v>
       </c>
     </row>
@@ -1582,64 +1626,170 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8CDFC7-6CB3-429F-978A-732278F93281}">
-  <dimension ref="C8:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCB309B-E3C3-431C-9D57-0B1277AF62D6}">
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>1</v>
       </c>
     </row>
@@ -1650,15 +1800,837 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEC5009-66B3-4F52-AC99-D0B3F2BCA262}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AE52D9-0789-4073-9A4C-25E5921A3BE8}">
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411DA4A4-3648-4776-9300-88D0274C26F5}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A5FD9F-BC82-4B13-B07D-84F5D53771EE}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B674BF-ADCD-4EC1-8838-26DA5139492A}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197CC6FC-B197-4988-9C29-BF639E0A1E6D}">
+  <dimension ref="C1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2040,6 +3012,215 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E8D76C-6E77-484E-BAF4-091AB3146CF5}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8CDFC7-6CB3-429F-978A-732278F93281}">
+  <dimension ref="C8:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEC5009-66B3-4F52-AC99-D0B3F2BCA262}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E79EEE-38BA-4A7A-A348-B1F9FD87ED5C}">
   <dimension ref="A1:L16"/>
